--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_GPSBacNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_GPSBacNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>21/01/22</t>
   </si>
 </sst>
 </file>
@@ -665,6 +668,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -680,32 +707,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1049,43 +1052,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="49"/>
@@ -1130,58 +1133,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1206,23 +1209,23 @@
       <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1235,9 @@
       <c r="B6" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1272,7 +1277,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1287,7 +1292,9 @@
       <c r="B7" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1327,7 +1334,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1363,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1385,7 +1392,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1414,7 +1421,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1443,7 +1450,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1472,7 +1479,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1503,7 +1510,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1532,7 +1539,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1561,7 +1568,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1590,7 +1597,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2821,6 +2828,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2832,13 +2846,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2849,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2882,43 +2889,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="49"/>
@@ -2963,58 +2970,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -3039,23 +3046,23 @@
       <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3065,7 +3072,9 @@
       <c r="B6" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3107,7 +3116,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3122,7 +3131,9 @@
       <c r="B7" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -3164,7 +3175,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3193,7 +3204,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3222,7 +3233,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3251,7 +3262,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3280,7 +3291,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3309,7 +3320,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3340,7 +3351,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3369,7 +3380,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3398,7 +3409,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3427,7 +3438,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4658,13 +4669,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4676,6 +4680,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4686,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4719,43 +4730,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4800,58 +4811,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -4876,49 +4887,75 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183037795551</v>
+      </c>
       <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4930,26 +4967,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183038062449</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="52"/>
+      <c r="I7" s="52" t="s">
+        <v>70</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4959,26 +5022,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>861881051087337</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4988,26 +5079,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>861881051083070</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5036,7 +5155,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5065,7 +5184,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5094,7 +5213,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5125,7 +5244,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5154,7 +5273,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5183,7 +5302,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5212,7 +5331,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5331,7 +5450,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5395,7 +5514,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5672,7 +5791,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5704,7 +5823,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -5800,7 +5919,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -5864,7 +5983,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6443,13 +6562,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6461,6 +6573,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
